--- a/data-raw/model-runs/EPA-GHGI.xlsx
+++ b/data-raw/model-runs/EPA-GHGI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF6B5FF-6E24-4DE5-8619-047B18DA116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849187C-499A-4CE8-9433-1F0BEE226D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -106,6 +106,39 @@
   </si>
   <si>
     <t>Emissions|CO2|Energy|Demand|Buildings|Commercial|Indirect</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Passenger Cars</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Light-Duty Trucks</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Medium- and Heavy-Duty Trucks</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Buses</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Mortorcycles</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Commerical Aircraft</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Other Aircraft</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Ships and Boats</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Rail</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Pipelines</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Transportation|GHGI|Lubricants</t>
   </si>
 </sst>
 </file>
@@ -424,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -1572,7 +1605,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1587,105 +1620,105 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>852.4</v>
+        <v>686.4</v>
       </c>
       <c r="G11">
-        <v>837.8</v>
+        <v>674.2</v>
       </c>
       <c r="H11">
-        <v>865.3</v>
+        <v>699.2</v>
       </c>
       <c r="I11">
-        <v>864.6</v>
+        <v>709.2</v>
       </c>
       <c r="J11">
-        <v>871.4</v>
+        <v>723.3</v>
       </c>
       <c r="K11">
-        <v>888.4</v>
+        <v>716</v>
       </c>
       <c r="L11">
-        <v>921.2</v>
+        <v>736.5</v>
       </c>
       <c r="M11">
-        <v>915.8</v>
+        <v>755.2</v>
       </c>
       <c r="N11">
-        <v>889.4</v>
+        <v>770.2</v>
       </c>
       <c r="O11">
-        <v>842.1</v>
+        <v>773</v>
       </c>
       <c r="P11">
-        <v>868.9</v>
+        <v>789.5</v>
       </c>
       <c r="Q11">
-        <v>866.7</v>
+        <v>735.6</v>
       </c>
       <c r="R11">
-        <v>852.4</v>
+        <v>723.5</v>
       </c>
       <c r="S11">
-        <v>852</v>
+        <v>742.7</v>
       </c>
       <c r="T11">
-        <v>875.4</v>
+        <v>745.5</v>
       </c>
       <c r="U11">
-        <v>850.8</v>
+        <v>736.3</v>
       </c>
       <c r="V11">
-        <v>875.1</v>
+        <v>711.4</v>
       </c>
       <c r="W11">
-        <v>866.4</v>
+        <v>714.9</v>
       </c>
       <c r="X11">
-        <v>819</v>
+        <v>696.7</v>
       </c>
       <c r="Y11">
-        <v>742.5</v>
+        <v>601.70000000000005</v>
       </c>
       <c r="Z11">
-        <v>795.9</v>
+        <v>641</v>
       </c>
       <c r="AA11">
-        <v>796.7</v>
+        <v>624.79999999999995</v>
       </c>
       <c r="AB11">
-        <v>806.2</v>
+        <v>593.1</v>
       </c>
       <c r="AC11">
-        <v>834.2</v>
+        <v>594.79999999999995</v>
       </c>
       <c r="AD11">
-        <v>813.7</v>
+        <v>593</v>
       </c>
       <c r="AE11">
-        <v>798</v>
+        <v>549.5</v>
       </c>
       <c r="AF11">
-        <v>792.9</v>
+        <v>517.6</v>
       </c>
       <c r="AG11">
-        <v>789</v>
+        <v>504.4</v>
       </c>
       <c r="AH11">
-        <v>813.5</v>
+        <v>501.3</v>
       </c>
       <c r="AI11">
-        <v>815.9</v>
+        <v>465.5</v>
       </c>
       <c r="AJ11">
-        <v>767.9</v>
+        <v>409.8</v>
       </c>
       <c r="AK11">
-        <v>775.6</v>
+        <v>445.1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1699,106 +1732,106 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12">
-        <v>686.4</v>
-      </c>
-      <c r="G12">
-        <v>674.2</v>
-      </c>
-      <c r="H12">
-        <v>699.2</v>
-      </c>
-      <c r="I12">
-        <v>709.2</v>
-      </c>
-      <c r="J12">
-        <v>723.3</v>
-      </c>
-      <c r="K12">
-        <v>716</v>
-      </c>
-      <c r="L12">
-        <v>736.5</v>
-      </c>
-      <c r="M12">
-        <v>755.2</v>
-      </c>
-      <c r="N12">
-        <v>770.2</v>
-      </c>
-      <c r="O12">
-        <v>773</v>
-      </c>
-      <c r="P12">
-        <v>789.5</v>
-      </c>
-      <c r="Q12">
-        <v>735.6</v>
-      </c>
-      <c r="R12">
-        <v>723.5</v>
-      </c>
-      <c r="S12">
-        <v>742.7</v>
-      </c>
-      <c r="T12">
-        <v>745.5</v>
-      </c>
-      <c r="U12">
-        <v>736.3</v>
-      </c>
-      <c r="V12">
-        <v>711.4</v>
-      </c>
-      <c r="W12">
-        <v>714.9</v>
-      </c>
-      <c r="X12">
-        <v>696.7</v>
-      </c>
-      <c r="Y12">
-        <v>601.70000000000005</v>
-      </c>
-      <c r="Z12">
-        <v>641</v>
-      </c>
-      <c r="AA12">
-        <v>624.79999999999995</v>
-      </c>
-      <c r="AB12">
-        <v>593.1</v>
-      </c>
-      <c r="AC12">
-        <v>594.79999999999995</v>
-      </c>
-      <c r="AD12">
-        <v>593</v>
-      </c>
-      <c r="AE12">
-        <v>549.5</v>
-      </c>
-      <c r="AF12">
-        <v>517.6</v>
-      </c>
-      <c r="AG12">
-        <v>504.4</v>
-      </c>
-      <c r="AH12">
-        <v>501.3</v>
-      </c>
-      <c r="AI12">
-        <v>465.5</v>
-      </c>
-      <c r="AJ12">
-        <v>409.8</v>
-      </c>
-      <c r="AK12">
-        <v>445.1</v>
+      <c r="F12" s="1">
+        <v>1468.9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1422.3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1477.6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1508.6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1553.9</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1580.7</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1627.4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1643.5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1678.9</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1746.3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1792.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1762.5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1803</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1812</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1845.2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1858.6</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1859.1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1860.7</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1759.7</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1688.5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1696.6</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1670.4</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1659.4</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1669</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1707.2</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1718.2</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1757.7</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1780.1</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1812.9</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1816.4</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1572.5</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1752.4</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1812,106 +1845,106 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1">
-        <v>1468.9</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1422.3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1477.6</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1508.6</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1553.9</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1580.7</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1627.4</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1643.5</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1678.9</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1746.3</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1792.2</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>1762.5</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1803</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1812</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1845.2</v>
-      </c>
-      <c r="U13" s="1">
-        <v>1858.6</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1859.1</v>
-      </c>
-      <c r="W13" s="1">
-        <v>1860.7</v>
-      </c>
-      <c r="X13" s="1">
-        <v>1759.7</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>1688.5</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>1696.6</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>1670.4</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>1659.4</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>1669</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>1707.2</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>1718.2</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>1757.7</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>1780.1</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>1812.9</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>1816.4</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>1572.5</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>1752.4</v>
+      <c r="F13">
+        <v>13.3</v>
+      </c>
+      <c r="G13">
+        <v>12.9</v>
+      </c>
+      <c r="H13">
+        <v>13.6</v>
+      </c>
+      <c r="I13">
+        <v>14.4</v>
+      </c>
+      <c r="J13">
+        <v>15.3</v>
+      </c>
+      <c r="K13">
+        <v>15.8</v>
+      </c>
+      <c r="L13">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N13">
+        <v>17.8</v>
+      </c>
+      <c r="O13">
+        <v>18.7</v>
+      </c>
+      <c r="P13">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>15.8</v>
+      </c>
+      <c r="R13">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="S13">
+        <v>16.3</v>
+      </c>
+      <c r="T13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="U13">
+        <v>17.2</v>
+      </c>
+      <c r="V13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W13">
+        <v>18.2</v>
+      </c>
+      <c r="X13">
+        <v>17.7</v>
+      </c>
+      <c r="Y13">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Z13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>17</v>
+      </c>
+      <c r="AB13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>18.5</v>
+      </c>
+      <c r="AD13">
+        <v>20.3</v>
+      </c>
+      <c r="AE13">
+        <v>21.2</v>
+      </c>
+      <c r="AF13">
+        <v>21.4</v>
+      </c>
+      <c r="AG13">
+        <v>22.8</v>
+      </c>
+      <c r="AH13">
+        <v>23.7</v>
+      </c>
+      <c r="AI13">
+        <v>24.2</v>
+      </c>
+      <c r="AJ13">
+        <v>23</v>
+      </c>
+      <c r="AK13">
+        <v>25.1</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1926,105 +1959,105 @@
         <v>9</v>
       </c>
       <c r="F14">
-        <v>1468.9</v>
+        <v>109.9</v>
       </c>
       <c r="G14">
-        <v>1422.3</v>
+        <v>103.3</v>
       </c>
       <c r="H14">
-        <v>1477.6</v>
+        <v>105.5</v>
       </c>
       <c r="I14">
-        <v>1508.6</v>
+        <v>108.7</v>
       </c>
       <c r="J14">
-        <v>1553.9</v>
+        <v>113.5</v>
       </c>
       <c r="K14">
-        <v>1580.7</v>
+        <v>115.2</v>
       </c>
       <c r="L14">
-        <v>1627.4</v>
+        <v>118.6</v>
       </c>
       <c r="M14">
-        <v>1643.5</v>
+        <v>122.9</v>
       </c>
       <c r="N14">
-        <v>1678.9</v>
+        <v>119.7</v>
       </c>
       <c r="O14">
-        <v>1746.3</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="P14">
-        <v>1792.2</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="Q14">
-        <v>1762.5</v>
+        <v>124.6</v>
       </c>
       <c r="R14">
-        <v>1803</v>
+        <v>121.3</v>
       </c>
       <c r="S14">
-        <v>1812</v>
+        <v>122.9</v>
       </c>
       <c r="T14">
-        <v>1845.2</v>
+        <v>124.8</v>
       </c>
       <c r="U14">
-        <v>1858.6</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="V14">
-        <v>1859.1</v>
+        <v>137</v>
       </c>
       <c r="W14">
-        <v>1860.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="X14">
-        <v>1759.7</v>
+        <v>127.3</v>
       </c>
       <c r="Y14">
-        <v>1688.5</v>
+        <v>119.5</v>
       </c>
       <c r="Z14">
-        <v>1696.6</v>
+        <v>113.3</v>
       </c>
       <c r="AA14">
-        <v>1670.4</v>
+        <v>114.6</v>
       </c>
       <c r="AB14">
-        <v>1659.4</v>
+        <v>113.3</v>
       </c>
       <c r="AC14">
-        <v>1669</v>
+        <v>114.3</v>
       </c>
       <c r="AD14">
-        <v>1707.2</v>
+        <v>115.2</v>
       </c>
       <c r="AE14">
-        <v>1718.2</v>
+        <v>119</v>
       </c>
       <c r="AF14">
-        <v>1757.7</v>
+        <v>120.4</v>
       </c>
       <c r="AG14">
-        <v>1780.1</v>
+        <v>128</v>
       </c>
       <c r="AH14">
-        <v>1812.9</v>
+        <v>129.6</v>
       </c>
       <c r="AI14">
-        <v>1816.4</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="AJ14">
-        <v>1572.5</v>
+        <v>91.3</v>
       </c>
       <c r="AK14">
-        <v>1752.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2039,105 +2072,105 @@
         <v>9</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>292.2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>303.60000000000002</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>329.8</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>351.7</v>
       </c>
       <c r="J15">
-        <v>3.1</v>
+        <v>373.9</v>
       </c>
       <c r="K15">
-        <v>3.1</v>
+        <v>396.3</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>423.5</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>446.9</v>
       </c>
       <c r="N15">
-        <v>3.2</v>
+        <v>478.8</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>513.20000000000005</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>530.29999999999995</v>
       </c>
       <c r="Q15">
-        <v>3.6</v>
+        <v>541.29999999999995</v>
       </c>
       <c r="R15">
-        <v>3.5</v>
+        <v>564.29999999999995</v>
       </c>
       <c r="S15">
-        <v>4.3</v>
+        <v>584.70000000000005</v>
       </c>
       <c r="T15">
-        <v>4.5</v>
+        <v>607.5</v>
       </c>
       <c r="U15">
-        <v>4.7</v>
+        <v>614.20000000000005</v>
       </c>
       <c r="V15">
-        <v>4.5</v>
+        <v>623.1</v>
       </c>
       <c r="W15">
-        <v>5.0999999999999996</v>
+        <v>625.1</v>
       </c>
       <c r="X15">
-        <v>4.7</v>
+        <v>586.6</v>
       </c>
       <c r="Y15">
-        <v>4.5</v>
+        <v>588.6</v>
       </c>
       <c r="Z15">
-        <v>4.5</v>
+        <v>589</v>
       </c>
       <c r="AA15">
-        <v>4.3</v>
+        <v>601.9</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>650.5</v>
       </c>
       <c r="AC15">
-        <v>4.3</v>
+        <v>638.1</v>
       </c>
       <c r="AD15">
-        <v>4.4000000000000004</v>
+        <v>662.3</v>
       </c>
       <c r="AE15">
-        <v>4.3</v>
+        <v>664.6</v>
       </c>
       <c r="AF15">
-        <v>4.2</v>
+        <v>684.9</v>
       </c>
       <c r="AG15">
-        <v>4.3</v>
+        <v>692.7</v>
       </c>
       <c r="AH15">
-        <v>4.8</v>
+        <v>699.1</v>
       </c>
       <c r="AI15">
-        <v>4.8</v>
+        <v>690.2</v>
       </c>
       <c r="AJ15">
-        <v>4.0999999999999996</v>
+        <v>596.29999999999995</v>
       </c>
       <c r="AK15">
-        <v>5</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2152,105 +2185,105 @@
         <v>9</v>
       </c>
       <c r="F16">
-        <v>998.6</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1020.9</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1054.3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1081.8</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1106.5999999999999</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1155</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1176.3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1182.5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1158.7</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1162.9000000000001</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1218.5999999999999</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1169.4000000000001</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1207.9000000000001</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1177</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1182.8</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1166.2</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1151</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1225</v>
-      </c>
-      <c r="X16" s="1">
-        <v>1235.9000000000001</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>1214.2</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>1273.0999999999999</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>1292.8</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>1352.8</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>1390.8</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>1419.1</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>1455.4</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>1461.3</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>1433.2</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>1592</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>1649.3</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>1612.4</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>1621</v>
+        <v>11.8</v>
+      </c>
+      <c r="G16">
+        <v>10.6</v>
+      </c>
+      <c r="H16">
+        <v>10.8</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>11.5</v>
+      </c>
+      <c r="K16">
+        <v>11.3</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>11.6</v>
+      </c>
+      <c r="N16">
+        <v>12.1</v>
+      </c>
+      <c r="O16">
+        <v>12.2</v>
+      </c>
+      <c r="P16">
+        <v>12.1</v>
+      </c>
+      <c r="Q16">
+        <v>11.1</v>
+      </c>
+      <c r="R16">
+        <v>10.9</v>
+      </c>
+      <c r="S16">
+        <v>10.1</v>
+      </c>
+      <c r="T16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="V16">
+        <v>9.9</v>
+      </c>
+      <c r="W16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="X16">
+        <v>9.5</v>
+      </c>
+      <c r="Y16">
+        <v>8.5</v>
+      </c>
+      <c r="Z16">
+        <v>10.4</v>
+      </c>
+      <c r="AA16">
+        <v>10</v>
+      </c>
+      <c r="AB16">
+        <v>9.1</v>
+      </c>
+      <c r="AC16">
+        <v>9.6</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>11</v>
+      </c>
+      <c r="AF16">
+        <v>10.4</v>
+      </c>
+      <c r="AG16">
+        <v>9.6</v>
+      </c>
+      <c r="AH16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AI16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ16">
+        <v>7.8</v>
+      </c>
+      <c r="AK16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -2264,106 +2297,106 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1">
-        <v>2009.2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1939.7</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1989.7</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2010.4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2050.1999999999998</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2042.9</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2127.6</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2136.3000000000002</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2177.5</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2222.4</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2318.3000000000002</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2347.6</v>
-      </c>
-      <c r="R17" s="1">
-        <v>2334.8000000000002</v>
-      </c>
-      <c r="S17" s="1">
-        <v>2399.8000000000002</v>
-      </c>
-      <c r="T17" s="1">
-        <v>2456.1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>2467</v>
-      </c>
-      <c r="V17" s="1">
-        <v>2433.4</v>
-      </c>
-      <c r="W17" s="1">
-        <v>2415.9</v>
-      </c>
-      <c r="X17" s="1">
-        <v>2240.1</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>2127.6</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>2140.1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>2099</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>2053.9</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>2073.6999999999998</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>2090.6999999999998</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>2123.9</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>2137.5</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>2148.8000000000002</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>2185.8000000000002</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>2178.1</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>1896.5</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>2060.4</v>
+      <c r="F17">
+        <v>232.8</v>
+      </c>
+      <c r="G17">
+        <v>226.1</v>
+      </c>
+      <c r="H17">
+        <v>237.9</v>
+      </c>
+      <c r="I17">
+        <v>252.1</v>
+      </c>
+      <c r="J17">
+        <v>267.5</v>
+      </c>
+      <c r="K17">
+        <v>277</v>
+      </c>
+      <c r="L17">
+        <v>288.5</v>
+      </c>
+      <c r="M17">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="N17">
+        <v>313.7</v>
+      </c>
+      <c r="O17">
+        <v>330.8</v>
+      </c>
+      <c r="P17">
+        <v>343.1</v>
+      </c>
+      <c r="Q17">
+        <v>343</v>
+      </c>
+      <c r="R17">
+        <v>354</v>
+      </c>
+      <c r="S17">
+        <v>361.8</v>
+      </c>
+      <c r="T17">
+        <v>371.8</v>
+      </c>
+      <c r="U17">
+        <v>386.5</v>
+      </c>
+      <c r="V17">
+        <v>395.6</v>
+      </c>
+      <c r="W17">
+        <v>397.7</v>
+      </c>
+      <c r="X17">
+        <v>380.8</v>
+      </c>
+      <c r="Y17">
+        <v>341.8</v>
+      </c>
+      <c r="Z17">
+        <v>353.1</v>
+      </c>
+      <c r="AA17">
+        <v>346.1</v>
+      </c>
+      <c r="AB17">
+        <v>344.8</v>
+      </c>
+      <c r="AC17">
+        <v>350.5</v>
+      </c>
+      <c r="AD17">
+        <v>364.6</v>
+      </c>
+      <c r="AE17">
+        <v>370.7</v>
+      </c>
+      <c r="AF17">
+        <v>374.7</v>
+      </c>
+      <c r="AG17">
+        <v>387.5</v>
+      </c>
+      <c r="AH17">
+        <v>398.2</v>
+      </c>
+      <c r="AI17">
+        <v>400.6</v>
+      </c>
+      <c r="AJ17">
+        <v>377.9</v>
+      </c>
+      <c r="AK17">
+        <v>407.8</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2377,106 +2410,106 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1">
-        <v>1820</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1817.4</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1830.7</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1906.2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1930.5</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1947.2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2020.2</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2087.5</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2176.6</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2189.6999999999998</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2296.1999999999998</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>2257.1999999999998</v>
-      </c>
-      <c r="R18" s="1">
-        <v>2272.1999999999998</v>
-      </c>
-      <c r="S18" s="1">
-        <v>2303.6999999999998</v>
-      </c>
-      <c r="T18" s="1">
-        <v>2335.1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>2400.1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>2344.4</v>
-      </c>
-      <c r="W18" s="1">
-        <v>2411.1</v>
-      </c>
-      <c r="X18" s="1">
-        <v>2359.3000000000002</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>2145.3000000000002</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>2258.6</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>2158.1</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>2023.3</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>2038.3</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>2037.2</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>1900.6</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>1808.9</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>1732</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>1753.4</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>1606.7</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>1439.6</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>1540.9</v>
+      <c r="F18">
+        <v>3.4</v>
+      </c>
+      <c r="G18">
+        <v>3.4</v>
+      </c>
+      <c r="H18">
+        <v>3.6</v>
+      </c>
+      <c r="I18">
+        <v>3.7</v>
+      </c>
+      <c r="J18">
+        <v>3.9</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>4.2</v>
+      </c>
+      <c r="M18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S18">
+        <v>4.2</v>
+      </c>
+      <c r="T18">
+        <v>5.4</v>
+      </c>
+      <c r="U18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V18">
+        <v>6.8</v>
+      </c>
+      <c r="W18">
+        <v>7.5</v>
+      </c>
+      <c r="X18">
+        <v>7.1</v>
+      </c>
+      <c r="Y18">
+        <v>7.1</v>
+      </c>
+      <c r="Z18">
+        <v>6.3</v>
+      </c>
+      <c r="AA18">
+        <v>6.2</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AC18">
+        <v>6.7</v>
+      </c>
+      <c r="AD18">
+        <v>6.9</v>
+      </c>
+      <c r="AE18">
+        <v>6.7</v>
+      </c>
+      <c r="AF18">
+        <v>7.1</v>
+      </c>
+      <c r="AG18">
+        <v>7</v>
+      </c>
+      <c r="AH18">
+        <v>7.3</v>
+      </c>
+      <c r="AI18">
+        <v>7.4</v>
+      </c>
+      <c r="AJ18">
+        <v>6.6</v>
+      </c>
+      <c r="AK18">
+        <v>7.4</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2485,109 +2518,1131 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19">
+        <v>77.3</v>
+      </c>
+      <c r="G19">
+        <v>68.2</v>
+      </c>
+      <c r="H19">
+        <v>63.8</v>
+      </c>
+      <c r="I19">
+        <v>62</v>
+      </c>
+      <c r="J19">
+        <v>64.5</v>
+      </c>
+      <c r="K19">
+        <v>59.6</v>
+      </c>
+      <c r="L19">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="M19">
+        <v>64.2</v>
+      </c>
+      <c r="N19">
+        <v>71</v>
+      </c>
+      <c r="O19">
+        <v>64.7</v>
+      </c>
+      <c r="P19">
+        <v>58.1</v>
+      </c>
+      <c r="Q19">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="R19">
+        <v>66.2</v>
+      </c>
+      <c r="S19">
+        <v>58.4</v>
+      </c>
+      <c r="T19">
+        <v>63.9</v>
+      </c>
+      <c r="U19">
+        <v>59</v>
+      </c>
+      <c r="V19">
+        <v>47.5</v>
+      </c>
+      <c r="W19">
+        <v>41.9</v>
+      </c>
+      <c r="X19">
+        <v>47.7</v>
+      </c>
+      <c r="Y19">
+        <v>36.4</v>
+      </c>
+      <c r="Z19">
+        <v>40</v>
+      </c>
+      <c r="AA19">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AB19">
+        <v>31.7</v>
+      </c>
+      <c r="AC19">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AD19">
+        <v>34.6</v>
+      </c>
+      <c r="AE19">
+        <v>40</v>
+      </c>
+      <c r="AF19">
+        <v>47</v>
+      </c>
+      <c r="AG19">
+        <v>45.1</v>
+      </c>
+      <c r="AH19">
+        <v>44.2</v>
+      </c>
+      <c r="AI19">
+        <v>45.2</v>
+      </c>
+      <c r="AJ19">
+        <v>30.7</v>
+      </c>
+      <c r="AK19">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>622.20000000000005</v>
+      </c>
+      <c r="G20">
+        <v>597.4</v>
+      </c>
+      <c r="H20">
+        <v>600.5</v>
+      </c>
+      <c r="I20">
+        <v>593.4</v>
+      </c>
+      <c r="J20">
+        <v>585.20000000000005</v>
+      </c>
+      <c r="K20">
+        <v>576.79999999999995</v>
+      </c>
+      <c r="L20">
+        <v>573.5</v>
+      </c>
+      <c r="M20">
+        <v>563.4</v>
+      </c>
+      <c r="N20">
+        <v>562.4</v>
+      </c>
+      <c r="O20">
+        <v>561.9</v>
+      </c>
+      <c r="P20">
+        <v>555.29999999999995</v>
+      </c>
+      <c r="Q20">
+        <v>547.1</v>
+      </c>
+      <c r="R20">
+        <v>550.9</v>
+      </c>
+      <c r="S20">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="T20">
+        <v>538.20000000000005</v>
+      </c>
+      <c r="U20">
+        <v>521.1</v>
+      </c>
+      <c r="V20">
+        <v>503</v>
+      </c>
+      <c r="W20">
+        <v>495.4</v>
+      </c>
+      <c r="X20">
+        <v>468.7</v>
+      </c>
+      <c r="Y20">
+        <v>467.4</v>
+      </c>
+      <c r="Z20">
+        <v>459.1</v>
+      </c>
+      <c r="AA20">
+        <v>427.9</v>
+      </c>
+      <c r="AB20">
+        <v>375.8</v>
+      </c>
+      <c r="AC20">
+        <v>383.5</v>
+      </c>
+      <c r="AD20">
+        <v>396.2</v>
+      </c>
+      <c r="AE20">
+        <v>387.6</v>
+      </c>
+      <c r="AF20">
+        <v>390.3</v>
+      </c>
+      <c r="AG20">
+        <v>379</v>
+      </c>
+      <c r="AH20">
+        <v>386.5</v>
+      </c>
+      <c r="AI20">
+        <v>384.2</v>
+      </c>
+      <c r="AJ20">
+        <v>331.9</v>
+      </c>
+      <c r="AK20">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H21">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I21">
+        <v>34.1</v>
+      </c>
+      <c r="J21">
+        <v>37.5</v>
+      </c>
+      <c r="K21">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="L21">
+        <v>38.9</v>
+      </c>
+      <c r="M21">
+        <v>41.2</v>
+      </c>
+      <c r="N21">
+        <v>35.1</v>
+      </c>
+      <c r="O21">
+        <v>35.6</v>
+      </c>
+      <c r="P21">
+        <v>35.4</v>
+      </c>
+      <c r="Q21">
+        <v>34.6</v>
+      </c>
+      <c r="R21">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="S21">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T21">
+        <v>31.5</v>
+      </c>
+      <c r="U21">
+        <v>32.6</v>
+      </c>
+      <c r="V21">
+        <v>32.6</v>
+      </c>
+      <c r="W21">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="X21">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>37.5</v>
+      </c>
+      <c r="Z21">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA21">
+        <v>38.5</v>
+      </c>
+      <c r="AB21">
+        <v>41</v>
+      </c>
+      <c r="AC21">
+        <v>46.6</v>
+      </c>
+      <c r="AD21">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AE21">
+        <v>38.9</v>
+      </c>
+      <c r="AF21">
+        <v>39.5</v>
+      </c>
+      <c r="AG21">
+        <v>41.6</v>
+      </c>
+      <c r="AH21">
+        <v>50.2</v>
+      </c>
+      <c r="AI21">
+        <v>58.2</v>
+      </c>
+      <c r="AJ21">
+        <v>57.9</v>
+      </c>
+      <c r="AK21">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>38.5</v>
+      </c>
+      <c r="G22">
+        <v>36.4</v>
+      </c>
+      <c r="H22">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I22">
+        <v>38.4</v>
+      </c>
+      <c r="J22">
+        <v>41.2</v>
+      </c>
+      <c r="K22">
+        <v>42.7</v>
+      </c>
+      <c r="L22">
+        <v>43.4</v>
+      </c>
+      <c r="M22">
+        <v>43.6</v>
+      </c>
+      <c r="N22">
+        <v>43.9</v>
+      </c>
+      <c r="O22">
+        <v>45.5</v>
+      </c>
+      <c r="P22">
+        <v>46</v>
+      </c>
+      <c r="Q22">
+        <v>46.3</v>
+      </c>
+      <c r="R22">
+        <v>45.8</v>
+      </c>
+      <c r="S22">
+        <v>47.5</v>
+      </c>
+      <c r="T22">
+        <v>50.2</v>
+      </c>
+      <c r="U22">
+        <v>50.8</v>
+      </c>
+      <c r="V22">
+        <v>52.7</v>
+      </c>
+      <c r="W22">
+        <v>51.8</v>
+      </c>
+      <c r="X22">
+        <v>48.1</v>
+      </c>
+      <c r="Y22">
+        <v>40.5</v>
+      </c>
+      <c r="Z22">
+        <v>43.4</v>
+      </c>
+      <c r="AA22">
+        <v>44.5</v>
+      </c>
+      <c r="AB22">
+        <v>43.3</v>
+      </c>
+      <c r="AC22">
+        <v>43.8</v>
+      </c>
+      <c r="AD22">
+        <v>45.6</v>
+      </c>
+      <c r="AE22">
+        <v>43.4</v>
+      </c>
+      <c r="AF22">
+        <v>39.6</v>
+      </c>
+      <c r="AG22">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AH22">
+        <v>41.9</v>
+      </c>
+      <c r="AI22">
+        <v>39.1</v>
+      </c>
+      <c r="AJ22">
+        <v>33.5</v>
+      </c>
+      <c r="AK22">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>46.3</v>
+      </c>
+      <c r="G23">
+        <v>41.1</v>
+      </c>
+      <c r="H23">
+        <v>56.4</v>
+      </c>
+      <c r="I23">
+        <v>53.1</v>
+      </c>
+      <c r="J23">
+        <v>54.6</v>
+      </c>
+      <c r="K23">
+        <v>58</v>
+      </c>
+      <c r="L23">
+        <v>55</v>
+      </c>
+      <c r="M23">
+        <v>41.6</v>
+      </c>
+      <c r="N23">
+        <v>35.1</v>
+      </c>
+      <c r="O23">
+        <v>43.9</v>
+      </c>
+      <c r="P23">
+        <v>64.7</v>
+      </c>
+      <c r="Q23">
+        <v>42</v>
+      </c>
+      <c r="R23">
+        <v>46.6</v>
+      </c>
+      <c r="S23">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="T23">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="U23">
+        <v>44.3</v>
+      </c>
+      <c r="V23">
+        <v>47.3</v>
+      </c>
+      <c r="W23">
+        <v>53.8</v>
+      </c>
+      <c r="X23">
+        <v>44.2</v>
+      </c>
+      <c r="Y23">
+        <v>37.5</v>
+      </c>
+      <c r="Z23">
+        <v>43.1</v>
+      </c>
+      <c r="AA23">
+        <v>44.3</v>
+      </c>
+      <c r="AB23">
+        <v>37.9</v>
+      </c>
+      <c r="AC23">
+        <v>37</v>
+      </c>
+      <c r="AD23">
+        <v>26.2</v>
+      </c>
+      <c r="AE23">
+        <v>30.5</v>
+      </c>
+      <c r="AF23">
+        <v>37.1</v>
+      </c>
+      <c r="AG23">
+        <v>39.9</v>
+      </c>
+      <c r="AH23">
+        <v>36.9</v>
+      </c>
+      <c r="AI23">
+        <v>35.5</v>
+      </c>
+      <c r="AJ23">
+        <v>27.6</v>
+      </c>
+      <c r="AK23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>3.1</v>
+      </c>
+      <c r="K24">
+        <v>3.1</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>3.1</v>
+      </c>
+      <c r="N24">
+        <v>3.2</v>
+      </c>
+      <c r="O24">
+        <v>3.2</v>
+      </c>
+      <c r="P24">
+        <v>3.4</v>
+      </c>
+      <c r="Q24">
+        <v>3.6</v>
+      </c>
+      <c r="R24">
+        <v>3.5</v>
+      </c>
+      <c r="S24">
+        <v>4.3</v>
+      </c>
+      <c r="T24">
+        <v>4.5</v>
+      </c>
+      <c r="U24">
+        <v>4.7</v>
+      </c>
+      <c r="V24">
+        <v>4.5</v>
+      </c>
+      <c r="W24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X24">
+        <v>4.7</v>
+      </c>
+      <c r="Y24">
+        <v>4.5</v>
+      </c>
+      <c r="Z24">
+        <v>4.5</v>
+      </c>
+      <c r="AA24">
+        <v>4.3</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>4.3</v>
+      </c>
+      <c r="AD24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE24">
+        <v>4.3</v>
+      </c>
+      <c r="AF24">
+        <v>4.2</v>
+      </c>
+      <c r="AG24">
+        <v>4.3</v>
+      </c>
+      <c r="AH24">
+        <v>4.8</v>
+      </c>
+      <c r="AI24">
+        <v>4.8</v>
+      </c>
+      <c r="AJ24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>998.6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1020.9</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1054.3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1081.8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1106.5999999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1155</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1176.3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1182.5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1158.7</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1162.9000000000001</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1218.5999999999999</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1169.4000000000001</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1207.9000000000001</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1177</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1182.8</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1166.2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1151</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1225</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1235.9000000000001</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1214.2</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1273.0999999999999</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1292.8</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1352.8</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1390.8</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1419.1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1455.4</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1461.3</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>1433.2</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>1592</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>1649.3</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>1612.4</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2009.2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1939.7</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1989.7</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2010.4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2050.1999999999998</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2042.9</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2127.6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2136.3000000000002</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2177.5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2222.4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2318.3000000000002</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2347.6</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2334.8000000000002</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2399.8000000000002</v>
+      </c>
+      <c r="T26" s="1">
+        <v>2456.1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2467</v>
+      </c>
+      <c r="V26" s="1">
+        <v>2433.4</v>
+      </c>
+      <c r="W26" s="1">
+        <v>2415.9</v>
+      </c>
+      <c r="X26" s="1">
+        <v>2240.1</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>2127.6</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>2140.1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>2099</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>2053.9</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2073.6999999999998</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>2090.6999999999998</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>2123.9</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>2137.5</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>2148.8000000000002</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>2185.8000000000002</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>2178.1</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>1896.5</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>2060.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1820</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1817.4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1830.7</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1906.2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1930.5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1947.2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2020.2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2087.5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2176.6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2189.6999999999998</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2296.1999999999998</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2257.1999999999998</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2272.1999999999998</v>
+      </c>
+      <c r="S27" s="1">
+        <v>2303.6999999999998</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2335.1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2400.1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>2344.4</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2411.1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>2359.3000000000002</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>2145.3000000000002</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>2258.6</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>2158.1</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>2023.3</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2038.3</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>2037.2</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1900.6</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>1808.9</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>1732</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>1753.4</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>1606.7</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>1439.6</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>1540.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
         <v>6453.4502232525201</v>
       </c>
-      <c r="G19">
+      <c r="G28">
         <v>6382.9389216505078</v>
       </c>
-      <c r="H19">
+      <c r="H28">
         <v>6497.2900791826778</v>
       </c>
-      <c r="I19">
+      <c r="I28">
         <v>6613.3957501537916</v>
       </c>
-      <c r="J19">
+      <c r="J28">
         <v>6700.7781756136119</v>
       </c>
-      <c r="K19">
+      <c r="K28">
         <v>6785.3636141675252</v>
       </c>
-      <c r="L19">
+      <c r="L28">
         <v>6990.9255804116547</v>
       </c>
-      <c r="M19">
+      <c r="M28">
         <v>7046.2130882317242</v>
       </c>
-      <c r="N19">
+      <c r="N28">
         <v>7094.833388772282</v>
       </c>
-      <c r="O19">
+      <c r="O28">
         <v>7138.1407130431598</v>
       </c>
-      <c r="P19">
+      <c r="P28">
         <v>7327.5932091700543</v>
       </c>
-      <c r="Q19">
+      <c r="Q28">
         <v>7219.1629741265115</v>
       </c>
-      <c r="R19">
+      <c r="R28">
         <v>7259.157149376394</v>
       </c>
-      <c r="S19">
+      <c r="S28">
         <v>7313.8280819559723</v>
       </c>
-      <c r="T19">
+      <c r="T28">
         <v>7428.4476443661761</v>
       </c>
-      <c r="U19">
+      <c r="U28">
         <v>7434.8279392583909</v>
       </c>
-      <c r="V19">
+      <c r="V28">
         <v>7360.8012671229317</v>
       </c>
-      <c r="W19">
+      <c r="W28">
         <v>7463.7864069836596</v>
       </c>
-      <c r="X19">
+      <c r="X28">
         <v>7240.6435478933017</v>
       </c>
-      <c r="Y19">
+      <c r="Y28">
         <v>6787.2647264210236</v>
       </c>
-      <c r="Z19">
+      <c r="Z28">
         <v>7007.4422614669174</v>
       </c>
-      <c r="AA19">
+      <c r="AA28">
         <v>6845.0871193108942</v>
       </c>
-      <c r="AB19">
+      <c r="AB28">
         <v>6606.5237642782813</v>
       </c>
-      <c r="AC19">
+      <c r="AC28">
         <v>6784.4942169610431</v>
       </c>
-      <c r="AD19">
+      <c r="AD28">
         <v>6843.3558219401157</v>
       </c>
-      <c r="AE19">
+      <c r="AE28">
         <v>6689.0061265364275</v>
       </c>
-      <c r="AF19">
+      <c r="AF28">
         <v>6537.871031702206</v>
       </c>
-      <c r="AG19">
+      <c r="AG28">
         <v>6500.9753857439564</v>
       </c>
-      <c r="AH19">
+      <c r="AH28">
         <v>6687.5125730157797</v>
       </c>
-      <c r="AI19">
+      <c r="AI28">
         <v>6571.7257461677391</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ28">
         <v>5981.3543724780538</v>
       </c>
-      <c r="AK19">
+      <c r="AK28">
         <v>6312.5819103199692</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK45">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>